--- a/data/trans_orig/P36BPD03_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD03_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{907A477F-FA27-46ED-B6B6-F4095796A40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3BEA49C-D8B3-4513-B352-E8601206EDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C926BE95-9BA8-4228-A9D7-159C3C6A1EA7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0CFA325-E68D-4697-AA4F-EEA26AE80346}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
   <si>
     <t>Población según el número de raciones de verdura u hortalizas que consume al día en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>7,06%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>5,34%</t>
@@ -86,16 +86,16 @@
     <t>4,16%</t>
   </si>
   <si>
-    <t>6,67%</t>
+    <t>6,6%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
   </si>
   <si>
     <t>No diariamente, pero tres o más por semana</t>
@@ -104,19 +104,19 @@
     <t>23,47%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
   </si>
   <si>
     <t>22,1%</t>
@@ -125,7 +125,7 @@
     <t>20,18%</t>
   </si>
   <si>
-    <t>24,57%</t>
+    <t>24,32%</t>
   </si>
   <si>
     <t>Diariamente, aunque menos de dos al día</t>
@@ -134,379 +134,373 @@
     <t>51,89%</t>
   </si>
   <si>
-    <t>47,76%</t>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
   </si>
   <si>
     <t>55,92%</t>
   </si>
   <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
   </si>
   <si>
     <t>54,33%</t>
   </si>
   <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>Dos o más al día (al menos una de ellas en ensalada o crudas)</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
     <t>52,16%</t>
   </si>
   <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>Dos o más al día (al menos una de ellas en ensalada o crudas)</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
     <t>21,32%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
   </si>
   <si>
     <t>24,93%</t>
   </si>
   <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
   </si>
   <si>
     <t>23,23%</t>
   </si>
   <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C441676D-9010-4EDD-93DF-57814031261C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B017CF-C24C-4AD0-9867-E22A9AF7C58E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1162,13 +1156,13 @@
         <v>466218</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>1176</v>
@@ -1177,19 +1171,19 @@
         <v>746875</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>120</v>
@@ -1198,13 +1192,13 @@
         <v>95084</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>236</v>
@@ -1213,13 +1207,13 @@
         <v>146121</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>356</v>
@@ -1228,13 +1222,13 @@
         <v>241205</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1249,13 +1243,13 @@
         <v>540850</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>1423</v>
@@ -1264,13 +1258,13 @@
         <v>833742</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>2113</v>
@@ -1279,18 +1273,18 @@
         <v>1374592</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1302,13 +1296,13 @@
         <v>133997</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>101</v>
@@ -1317,13 +1311,13 @@
         <v>90224</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>209</v>
@@ -1332,13 +1326,13 @@
         <v>224222</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1353,13 +1347,13 @@
         <v>504418</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>565</v>
@@ -1368,25 +1362,25 @@
         <v>424462</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>1019</v>
       </c>
       <c r="N10" s="7">
-        <v>928881</v>
+        <v>928880</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>68</v>
@@ -1431,7 +1425,7 @@
         <v>2560</v>
       </c>
       <c r="N11" s="7">
-        <v>2211969</v>
+        <v>2211968</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>75</v>
@@ -1446,7 +1440,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>414</v>
@@ -1506,13 +1500,13 @@
         <v>2159272</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>2918</v>
@@ -1521,28 +1515,28 @@
         <v>2247237</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>4907</v>
       </c>
       <c r="N13" s="7">
-        <v>4406509</v>
+        <v>4406508</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1640,13 +1634,13 @@
         <v>259437</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,13 +1655,13 @@
         <v>329387</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>543</v>
@@ -1676,13 +1670,13 @@
         <v>370557</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>890</v>
@@ -1691,19 +1685,19 @@
         <v>699944</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>165</v>
@@ -1712,13 +1706,13 @@
         <v>172569</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>293</v>
@@ -1727,13 +1721,13 @@
         <v>210149</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>458</v>
@@ -1742,13 +1736,13 @@
         <v>382718</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,13 +1757,13 @@
         <v>673039</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>1004</v>
@@ -1778,13 +1772,13 @@
         <v>713886</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>1685</v>
@@ -1793,13 +1787,13 @@
         <v>1386926</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,13 +1810,13 @@
         <v>192585</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>197</v>
@@ -1831,13 +1825,13 @@
         <v>159182</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>368</v>
@@ -1846,13 +1840,13 @@
         <v>351766</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,13 +1861,13 @@
         <v>782023</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>1005</v>
@@ -1882,13 +1876,13 @@
         <v>710088</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>1778</v>
@@ -1897,13 +1891,13 @@
         <v>1492111</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1912,13 @@
         <v>1679283</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>2909</v>
@@ -1933,7 +1927,7 @@
         <v>1979505</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>143</v>
@@ -1951,16 +1945,16 @@
         <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>699</v>
@@ -1969,13 +1963,13 @@
         <v>719270</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>1234</v>
@@ -1984,13 +1978,13 @@
         <v>946091</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>1933</v>
@@ -1999,13 +1993,13 @@
         <v>1665361</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,13 +2014,13 @@
         <v>3373160</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>5345</v>
@@ -2035,13 +2029,13 @@
         <v>3794866</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>8705</v>
@@ -2050,18 +2044,18 @@
         <v>7168026</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD03_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD03_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3BEA49C-D8B3-4513-B352-E8601206EDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF83B4F9-CD66-4222-9442-34DDD13044A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0CFA325-E68D-4697-AA4F-EEA26AE80346}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4EDC474C-1274-4C2B-A629-A6112DA9CBF5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>Población según el número de raciones de verdura u hortalizas que consume al día en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
@@ -71,436 +71,448 @@
     <t>Menos de tres veces por semana</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>No diariamente, pero tres o más por semana</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>Diariamente, aunque menos de dos al día</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>Dos o más al día (al menos una de ellas en ensalada o crudas)</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>No diariamente, pero tres o más por semana</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>Diariamente, aunque menos de dos al día</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>Dos o más al día (al menos una de ellas en ensalada o crudas)</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>4,02%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
   </si>
   <si>
     <t>20,01%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -915,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B017CF-C24C-4AD0-9867-E22A9AF7C58E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40D3156-820A-4C0B-A80A-451D5B5DAC28}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1036,7 +1048,7 @@
         <v>41</v>
       </c>
       <c r="D4" s="7">
-        <v>38182</v>
+        <v>36938</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1051,7 +1063,7 @@
         <v>71</v>
       </c>
       <c r="I4" s="7">
-        <v>44537</v>
+        <v>40954</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1066,7 +1078,7 @@
         <v>112</v>
       </c>
       <c r="N4" s="7">
-        <v>82718</v>
+        <v>77892</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1087,7 +1099,7 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>126926</v>
+        <v>126066</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1102,7 +1114,7 @@
         <v>297</v>
       </c>
       <c r="I5" s="7">
-        <v>176867</v>
+        <v>162875</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1117,7 +1129,7 @@
         <v>469</v>
       </c>
       <c r="N5" s="7">
-        <v>303793</v>
+        <v>288941</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1138,7 +1150,7 @@
         <v>357</v>
       </c>
       <c r="D6" s="7">
-        <v>280658</v>
+        <v>260576</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1153,7 +1165,7 @@
         <v>819</v>
       </c>
       <c r="I6" s="7">
-        <v>466218</v>
+        <v>418881</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1168,7 +1180,7 @@
         <v>1176</v>
       </c>
       <c r="N6" s="7">
-        <v>746875</v>
+        <v>679457</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1189,7 +1201,7 @@
         <v>120</v>
       </c>
       <c r="D7" s="7">
-        <v>95084</v>
+        <v>90616</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1204,7 +1216,7 @@
         <v>236</v>
       </c>
       <c r="I7" s="7">
-        <v>146121</v>
+        <v>130765</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1219,7 +1231,7 @@
         <v>356</v>
       </c>
       <c r="N7" s="7">
-        <v>241205</v>
+        <v>221381</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1240,7 +1252,7 @@
         <v>690</v>
       </c>
       <c r="D8" s="7">
-        <v>540850</v>
+        <v>514197</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1255,7 +1267,7 @@
         <v>1423</v>
       </c>
       <c r="I8" s="7">
-        <v>833742</v>
+        <v>753475</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1270,7 +1282,7 @@
         <v>2113</v>
       </c>
       <c r="N8" s="7">
-        <v>1374592</v>
+        <v>1267672</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1293,7 +1305,7 @@
         <v>108</v>
       </c>
       <c r="D9" s="7">
-        <v>133997</v>
+        <v>134909</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1308,7 +1320,7 @@
         <v>101</v>
       </c>
       <c r="I9" s="7">
-        <v>90224</v>
+        <v>85205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1317,22 +1329,22 @@
         <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
         <v>209</v>
       </c>
       <c r="N9" s="7">
-        <v>224222</v>
+        <v>220114</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1344,43 +1356,43 @@
         <v>454</v>
       </c>
       <c r="D10" s="7">
-        <v>504418</v>
+        <v>511293</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>565</v>
       </c>
       <c r="I10" s="7">
-        <v>424462</v>
+        <v>398115</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>1019</v>
       </c>
       <c r="N10" s="7">
-        <v>928880</v>
+        <v>909408</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>68</v>
@@ -1395,7 +1407,7 @@
         <v>1013</v>
       </c>
       <c r="D11" s="7">
-        <v>1069239</v>
+        <v>1205186</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -1410,7 +1422,7 @@
         <v>1547</v>
       </c>
       <c r="I11" s="7">
-        <v>1142730</v>
+        <v>1109094</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -1425,7 +1437,7 @@
         <v>2560</v>
       </c>
       <c r="N11" s="7">
-        <v>2211968</v>
+        <v>2314279</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>75</v>
@@ -1446,7 +1458,7 @@
         <v>414</v>
       </c>
       <c r="D12" s="7">
-        <v>451617</v>
+        <v>436394</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>78</v>
@@ -1461,7 +1473,7 @@
         <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>589821</v>
+        <v>643544</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>81</v>
@@ -1476,7 +1488,7 @@
         <v>1119</v>
       </c>
       <c r="N12" s="7">
-        <v>1041438</v>
+        <v>1079938</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>84</v>
@@ -1497,7 +1509,7 @@
         <v>1989</v>
       </c>
       <c r="D13" s="7">
-        <v>2159272</v>
+        <v>2287782</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1512,7 +1524,7 @@
         <v>2918</v>
       </c>
       <c r="I13" s="7">
-        <v>2247237</v>
+        <v>2235958</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1527,7 +1539,7 @@
         <v>4907</v>
       </c>
       <c r="N13" s="7">
-        <v>4406508</v>
+        <v>4523739</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1550,7 +1562,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>20405</v>
+        <v>20000</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1565,7 +1577,7 @@
         <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>24421</v>
+        <v>22584</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -1580,7 +1592,7 @@
         <v>47</v>
       </c>
       <c r="N14" s="7">
-        <v>44826</v>
+        <v>42584</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -1601,7 +1613,7 @@
         <v>147</v>
       </c>
       <c r="D15" s="7">
-        <v>150678</v>
+        <v>149451</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>97</v>
@@ -1616,7 +1628,7 @@
         <v>143</v>
       </c>
       <c r="I15" s="7">
-        <v>108759</v>
+        <v>102872</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>100</v>
@@ -1631,16 +1643,16 @@
         <v>290</v>
       </c>
       <c r="N15" s="7">
-        <v>259437</v>
+        <v>252324</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,46 +1664,46 @@
         <v>347</v>
       </c>
       <c r="D16" s="7">
-        <v>329387</v>
+        <v>314135</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>543</v>
       </c>
       <c r="I16" s="7">
-        <v>370557</v>
+        <v>342374</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>890</v>
       </c>
       <c r="N16" s="7">
-        <v>699944</v>
+        <v>656509</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,46 +1715,46 @@
         <v>165</v>
       </c>
       <c r="D17" s="7">
-        <v>172569</v>
+        <v>163036</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>293</v>
       </c>
       <c r="I17" s="7">
-        <v>210149</v>
+        <v>192633</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>458</v>
       </c>
       <c r="N17" s="7">
-        <v>382718</v>
+        <v>355670</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,7 +1766,7 @@
         <v>681</v>
       </c>
       <c r="D18" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1769,7 +1781,7 @@
         <v>1004</v>
       </c>
       <c r="I18" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1784,7 +1796,7 @@
         <v>1685</v>
       </c>
       <c r="N18" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1807,46 +1819,46 @@
         <v>171</v>
       </c>
       <c r="D19" s="7">
-        <v>192585</v>
+        <v>191848</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>197</v>
       </c>
       <c r="I19" s="7">
-        <v>159182</v>
+        <v>148743</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>368</v>
       </c>
       <c r="N19" s="7">
-        <v>351766</v>
+        <v>340591</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,46 +1870,46 @@
         <v>773</v>
       </c>
       <c r="D20" s="7">
-        <v>782023</v>
+        <v>786811</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>1005</v>
       </c>
       <c r="I20" s="7">
-        <v>710088</v>
+        <v>663862</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>1778</v>
       </c>
       <c r="N20" s="7">
-        <v>1492111</v>
+        <v>1450673</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,46 +1921,46 @@
         <v>1717</v>
       </c>
       <c r="D21" s="7">
-        <v>1679283</v>
+        <v>1779897</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>2909</v>
       </c>
       <c r="I21" s="7">
-        <v>1979505</v>
+        <v>1870349</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>4626</v>
       </c>
       <c r="N21" s="7">
-        <v>3658788</v>
+        <v>3650246</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,46 +1972,46 @@
         <v>699</v>
       </c>
       <c r="D22" s="7">
-        <v>719270</v>
+        <v>690046</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>1234</v>
       </c>
       <c r="I22" s="7">
-        <v>946091</v>
+        <v>966942</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>1933</v>
       </c>
       <c r="N22" s="7">
-        <v>1665361</v>
+        <v>1656988</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,7 +2023,7 @@
         <v>3360</v>
       </c>
       <c r="D23" s="7">
-        <v>3373160</v>
+        <v>3448602</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2026,7 +2038,7 @@
         <v>5345</v>
       </c>
       <c r="I23" s="7">
-        <v>3794866</v>
+        <v>3649896</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2041,7 +2053,7 @@
         <v>8705</v>
       </c>
       <c r="N23" s="7">
-        <v>7168026</v>
+        <v>7098498</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2055,7 +2067,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
